--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H2">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.8738626959102</v>
+        <v>116.9511416666667</v>
       </c>
       <c r="N2">
-        <v>73.8738626959102</v>
+        <v>350.853425</v>
       </c>
       <c r="O2">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="P2">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="Q2">
-        <v>781.7349071692597</v>
+        <v>1606.809161078442</v>
       </c>
       <c r="R2">
-        <v>781.7349071692597</v>
+        <v>14461.28244970598</v>
       </c>
       <c r="S2">
-        <v>0.1704483909973925</v>
+        <v>0.2524851700175913</v>
       </c>
       <c r="T2">
-        <v>0.1704483909973925</v>
+        <v>0.2524851700175913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H3">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>132.813867075176</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="N3">
-        <v>132.813867075176</v>
+        <v>399.226144</v>
       </c>
       <c r="O3">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="P3">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="Q3">
-        <v>1405.439383563614</v>
+        <v>1828.342492370485</v>
       </c>
       <c r="R3">
-        <v>1405.439383563614</v>
+        <v>16455.08243133437</v>
       </c>
       <c r="S3">
-        <v>0.3064400468443164</v>
+        <v>0.287295701455123</v>
       </c>
       <c r="T3">
-        <v>0.3064400468443164</v>
+        <v>0.287295701455123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H4">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I4">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J4">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.6767108626414</v>
+        <v>33.91710566666666</v>
       </c>
       <c r="N4">
-        <v>33.6767108626414</v>
+        <v>101.751317</v>
       </c>
       <c r="O4">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="P4">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="Q4">
-        <v>356.367725731911</v>
+        <v>465.9921684030776</v>
       </c>
       <c r="R4">
-        <v>356.367725731911</v>
+        <v>4193.929515627699</v>
       </c>
       <c r="S4">
-        <v>0.07770192286072813</v>
+        <v>0.07322345099597881</v>
       </c>
       <c r="T4">
-        <v>0.07770192286072813</v>
+        <v>0.07322345099597881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H5">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.8738626959102</v>
+        <v>116.9511416666667</v>
       </c>
       <c r="N5">
-        <v>73.8738626959102</v>
+        <v>350.853425</v>
       </c>
       <c r="O5">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="P5">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="Q5">
-        <v>286.721063925688</v>
+        <v>471.7851936918611</v>
       </c>
       <c r="R5">
-        <v>286.721063925688</v>
+        <v>4246.06674322675</v>
       </c>
       <c r="S5">
-        <v>0.06251626166747667</v>
+        <v>0.07413373518552936</v>
       </c>
       <c r="T5">
-        <v>0.06251626166747667</v>
+        <v>0.07413373518552936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H6">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J6">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>132.813867075176</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="N6">
-        <v>132.813867075176</v>
+        <v>399.226144</v>
       </c>
       <c r="O6">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="P6">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="Q6">
-        <v>515.4804674101274</v>
+        <v>536.8309677293155</v>
       </c>
       <c r="R6">
-        <v>515.4804674101274</v>
+        <v>4831.478709563839</v>
       </c>
       <c r="S6">
-        <v>0.1123946435739963</v>
+        <v>0.08435467100951348</v>
       </c>
       <c r="T6">
-        <v>0.1123946435739963</v>
+        <v>0.08435467100951348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H7">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J7">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.6767108626414</v>
+        <v>33.91710566666666</v>
       </c>
       <c r="N7">
-        <v>33.6767108626414</v>
+        <v>101.751317</v>
       </c>
       <c r="O7">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="P7">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="Q7">
-        <v>130.7068835401358</v>
+        <v>136.8228478865411</v>
       </c>
       <c r="R7">
-        <v>130.7068835401358</v>
+        <v>1231.40563097887</v>
       </c>
       <c r="S7">
-        <v>0.02849914694531602</v>
+        <v>0.02149959114481169</v>
       </c>
       <c r="T7">
-        <v>0.02849914694531602</v>
+        <v>0.02149959114481169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H8">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I8">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J8">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.8738626959102</v>
+        <v>116.9511416666667</v>
       </c>
       <c r="N8">
-        <v>73.8738626959102</v>
+        <v>350.853425</v>
       </c>
       <c r="O8">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="P8">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="Q8">
-        <v>341.115782332437</v>
+        <v>542.6092847203528</v>
       </c>
       <c r="R8">
-        <v>341.115782332437</v>
+        <v>4883.483562483175</v>
       </c>
       <c r="S8">
-        <v>0.07437641035235455</v>
+        <v>0.08526264401790631</v>
       </c>
       <c r="T8">
-        <v>0.07437641035235455</v>
+        <v>0.08526264401790631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H9">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I9">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J9">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>132.813867075176</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="N9">
-        <v>132.813867075176</v>
+        <v>399.226144</v>
       </c>
       <c r="O9">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="P9">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="Q9">
-        <v>613.2738226838803</v>
+        <v>617.4196886848248</v>
       </c>
       <c r="R9">
-        <v>613.2738226838803</v>
+        <v>5556.777198163423</v>
       </c>
       <c r="S9">
-        <v>0.1337173706311859</v>
+        <v>0.09701794017975855</v>
       </c>
       <c r="T9">
-        <v>0.1337173706311859</v>
+        <v>0.09701794017975855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H10">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I10">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J10">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.6767108626414</v>
+        <v>33.91710566666666</v>
       </c>
       <c r="N10">
-        <v>33.6767108626414</v>
+        <v>101.751317</v>
       </c>
       <c r="O10">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="P10">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="Q10">
-        <v>155.503680910531</v>
+        <v>157.3626061559007</v>
       </c>
       <c r="R10">
-        <v>155.503680910531</v>
+        <v>1416.263455403107</v>
       </c>
       <c r="S10">
-        <v>0.03390580612723369</v>
+        <v>0.02472709599378755</v>
       </c>
       <c r="T10">
-        <v>0.03390580612723369</v>
+        <v>0.02472709599378755</v>
       </c>
     </row>
   </sheetData>
